--- a/research/phreatic_df_particle_Modflow.xlsx
+++ b/research/phreatic_df_particle_Modflow.xlsx
@@ -404,7 +404,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>redox_zone</t>
+          <t>redox</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -414,12 +414,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>thickness_layer</t>
+          <t>travel_distance</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>porosity_layer</t>
+          <t>porosity</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>solid_density_layer</t>
+          <t>solid_density</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>11.98357935109809</v>
       </c>
       <c r="L3" t="n">
         <v>0.38</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>3.016420648901912</v>
       </c>
       <c r="L4" t="n">
         <v>0.35</v>
@@ -625,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="K5" t="n">
-        <v>40</v>
+        <v>5.45045333054815</v>
       </c>
       <c r="L5" t="n">
         <v>0.35</v>
@@ -717,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>12.98686348087847</v>
       </c>
       <c r="L7" t="n">
         <v>0.38</v>
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>2.013136519121529</v>
       </c>
       <c r="L8" t="n">
         <v>0.35</v>
@@ -825,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>40</v>
+        <v>17.23584680498276</v>
       </c>
       <c r="L9" t="n">
         <v>0.35</v>
@@ -917,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>13.99014761065885</v>
       </c>
       <c r="L11" t="n">
         <v>0.38</v>
@@ -971,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>1.009852389341146</v>
       </c>
       <c r="L12" t="n">
         <v>0.35</v>
@@ -1025,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="K13" t="n">
-        <v>40</v>
+        <v>54.5045333054815</v>
       </c>
       <c r="L13" t="n">
         <v>0.35</v>
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>14.69141312320171</v>
       </c>
       <c r="L15" t="n">
         <v>0.38</v>
@@ -1171,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>0.3085868767982944</v>
       </c>
       <c r="L16" t="n">
         <v>0.35</v>
@@ -1225,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="K17" t="n">
-        <v>40</v>
+        <v>121.875841552958</v>
       </c>
       <c r="L17" t="n">
         <v>0.35</v>
@@ -1317,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>14.99343174043923</v>
       </c>
       <c r="L19" t="n">
         <v>0.38</v>
@@ -1371,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>0.006568259560765455</v>
       </c>
       <c r="L20" t="n">
         <v>0.35</v>
@@ -1425,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="K21" t="n">
-        <v>40</v>
+        <v>172.3584680498276</v>
       </c>
       <c r="L21" t="n">
         <v>0.35</v>
@@ -1517,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>15.29545035767677</v>
       </c>
       <c r="L23" t="n">
         <v>0.38</v>
@@ -1571,7 +1571,7 @@
         <v>11</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>-0.2954503576767653</v>
       </c>
       <c r="L24" t="n">
         <v>0.35</v>
@@ -1625,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="K25" t="n">
-        <v>40</v>
+        <v>243.7516831059159</v>
       </c>
       <c r="L25" t="n">
         <v>0.35</v>
@@ -1717,7 +1717,7 @@
         <v>11</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>15.47211992328038</v>
       </c>
       <c r="L27" t="n">
         <v>0.38</v>
@@ -1771,7 +1771,7 @@
         <v>11</v>
       </c>
       <c r="K28" t="n">
-        <v>10</v>
+        <v>-0.4721199232803759</v>
       </c>
       <c r="L28" t="n">
         <v>0.35</v>
@@ -1825,7 +1825,7 @@
         <v>11</v>
       </c>
       <c r="K29" t="n">
-        <v>40</v>
+        <v>298.5336237770383</v>
       </c>
       <c r="L29" t="n">
         <v>0.35</v>
@@ -1917,7 +1917,7 @@
         <v>11</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>15.59746897491429</v>
       </c>
       <c r="L31" t="n">
         <v>0.38</v>
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>-0.5974689749142943</v>
       </c>
       <c r="L32" t="n">
         <v>0.35</v>
@@ -2025,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="K33" t="n">
-        <v>40</v>
+        <v>344.7169360996551</v>
       </c>
       <c r="L33" t="n">
         <v>0.35</v>
@@ -2117,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>15.69469725298209</v>
       </c>
       <c r="L35" t="n">
         <v>0.38</v>
@@ -2171,7 +2171,7 @@
         <v>11</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>-0.6946972529820883</v>
       </c>
       <c r="L36" t="n">
         <v>0.35</v>
@@ -2225,7 +2225,7 @@
         <v>11</v>
       </c>
       <c r="K37" t="n">
-        <v>40</v>
+        <v>385.40525105714</v>
       </c>
       <c r="L37" t="n">
         <v>0.35</v>
@@ -2317,7 +2317,7 @@
         <v>11</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>15.77413854051791</v>
       </c>
       <c r="L39" t="n">
         <v>0.38</v>
@@ -2371,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>-0.7741385405179066</v>
       </c>
       <c r="L40" t="n">
         <v>0.35</v>
@@ -2425,7 +2425,7 @@
         <v>11</v>
       </c>
       <c r="K41" t="n">
-        <v>40</v>
+        <v>422.1902995698748</v>
       </c>
       <c r="L41" t="n">
         <v>0.35</v>
@@ -2517,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>15.84130519209405</v>
       </c>
       <c r="L43" t="n">
         <v>0.38</v>
@@ -2571,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="K44" t="n">
-        <v>10</v>
+        <v>-0.8413051920940458</v>
       </c>
       <c r="L44" t="n">
         <v>0.35</v>
@@ -2625,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="K45" t="n">
-        <v>40</v>
+        <v>456.0176428159155</v>
       </c>
       <c r="L45" t="n">
         <v>0.35</v>
@@ -2717,7 +2717,7 @@
         <v>11</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>15.89948759215183</v>
       </c>
       <c r="L47" t="n">
         <v>0.38</v>
@@ -2771,7 +2771,7 @@
         <v>11</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>-0.8994875921518251</v>
       </c>
       <c r="L48" t="n">
         <v>0.35</v>
@@ -2825,7 +2825,7 @@
         <v>11</v>
       </c>
       <c r="K49" t="n">
-        <v>40</v>
+        <v>487.5033662118318</v>
       </c>
       <c r="L49" t="n">
         <v>0.35</v>
@@ -2917,7 +2917,7 @@
         <v>11</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>15.95080810612152</v>
       </c>
       <c r="L51" t="n">
         <v>0.38</v>
@@ -2971,7 +2971,7 @@
         <v>11</v>
       </c>
       <c r="K52" t="n">
-        <v>10</v>
+        <v>-0.9508081061215172</v>
       </c>
       <c r="L52" t="n">
         <v>0.35</v>
@@ -3025,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="K53" t="n">
-        <v>40</v>
+        <v>517.0754041494827</v>
       </c>
       <c r="L53" t="n">
         <v>0.35</v>
@@ -3117,7 +3117,7 @@
         <v>11</v>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>15.99671587021962</v>
       </c>
       <c r="L55" t="n">
         <v>0.38</v>
@@ -3171,7 +3171,7 @@
         <v>11</v>
       </c>
       <c r="K56" t="n">
-        <v>10</v>
+        <v>-0.9967158702196173</v>
       </c>
       <c r="L56" t="n">
         <v>0.35</v>
@@ -3225,7 +3225,7 @@
         <v>11</v>
       </c>
       <c r="K57" t="n">
-        <v>40</v>
+        <v>545.045333054815</v>
       </c>
       <c r="L57" t="n">
         <v>0.35</v>
@@ -3317,7 +3317,7 @@
         <v>11</v>
       </c>
       <c r="K59" t="n">
-        <v>5</v>
+        <v>16.03824449432786</v>
       </c>
       <c r="L59" t="n">
         <v>0.38</v>
@@ -3371,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="K60" t="n">
-        <v>10</v>
+        <v>-1.038244494327859</v>
       </c>
       <c r="L60" t="n">
         <v>0.35</v>
@@ -3425,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="K61" t="n">
-        <v>40</v>
+        <v>571.6483679617371</v>
       </c>
       <c r="L61" t="n">
         <v>0.35</v>
@@ -3517,7 +3517,7 @@
         <v>11</v>
       </c>
       <c r="K63" t="n">
-        <v>5</v>
+        <v>16.07615715775544</v>
       </c>
       <c r="L63" t="n">
         <v>0.38</v>
@@ -3571,7 +3571,7 @@
         <v>11</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>-1.076157157755436</v>
       </c>
       <c r="L64" t="n">
         <v>0.35</v>
@@ -3625,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="K65" t="n">
-        <v>40</v>
+        <v>597.0672475540766</v>
       </c>
       <c r="L65" t="n">
         <v>0.35</v>
@@ -3717,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>16.11103342728304</v>
       </c>
       <c r="L67" t="n">
         <v>0.38</v>
@@ -3771,7 +3771,7 @@
         <v>11</v>
       </c>
       <c r="K68" t="n">
-        <v>10</v>
+        <v>-1.111033427283044</v>
       </c>
       <c r="L68" t="n">
         <v>0.35</v>
@@ -3825,7 +3825,7 @@
         <v>11</v>
       </c>
       <c r="K69" t="n">
-        <v>40</v>
+        <v>621.447294314075</v>
       </c>
       <c r="L69" t="n">
         <v>0.35</v>
@@ -3917,7 +3917,7 @@
         <v>11</v>
       </c>
       <c r="K71" t="n">
-        <v>5</v>
+        <v>16.14332380933158</v>
       </c>
       <c r="L71" t="n">
         <v>0.38</v>
@@ -3971,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="K72" t="n">
-        <v>10</v>
+        <v>-1.143323809331577</v>
       </c>
       <c r="L72" t="n">
         <v>0.35</v>
@@ -4025,7 +4025,7 @@
         <v>11</v>
       </c>
       <c r="K73" t="n">
-        <v>40</v>
+        <v>644.9063351516777</v>
       </c>
       <c r="L73" t="n">
         <v>0.35</v>
@@ -4117,7 +4117,7 @@
         <v>11</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>16.17338543582323</v>
       </c>
       <c r="L75" t="n">
         <v>0.38</v>
@@ -4171,7 +4171,7 @@
         <v>11</v>
       </c>
       <c r="K76" t="n">
-        <v>10</v>
+        <v>-1.173385435823228</v>
       </c>
       <c r="L76" t="n">
         <v>0.35</v>
@@ -4225,7 +4225,7 @@
         <v>11</v>
       </c>
       <c r="K77" t="n">
-        <v>40</v>
+        <v>667.5414763348052</v>
       </c>
       <c r="L77" t="n">
         <v>0.35</v>
@@ -4317,7 +4317,7 @@
         <v>11</v>
       </c>
       <c r="K79" t="n">
-        <v>5</v>
+        <v>16.20150620938935</v>
       </c>
       <c r="L79" t="n">
         <v>0.38</v>
@@ -4371,7 +4371,7 @@
         <v>11</v>
       </c>
       <c r="K80" t="n">
-        <v>10</v>
+        <v>-1.201506209389354</v>
       </c>
       <c r="L80" t="n">
         <v>0.35</v>
@@ -4425,7 +4425,7 @@
         <v>11</v>
       </c>
       <c r="K81" t="n">
-        <v>40</v>
+        <v>689.4338721993103</v>
       </c>
       <c r="L81" t="n">
         <v>0.35</v>
@@ -4517,7 +4517,7 @@
         <v>11</v>
       </c>
       <c r="K83" t="n">
-        <v>5</v>
+        <v>16.22792161576345</v>
       </c>
       <c r="L83" t="n">
         <v>0.38</v>
@@ -4571,7 +4571,7 @@
         <v>11</v>
       </c>
       <c r="K84" t="n">
-        <v>10</v>
+        <v>-1.227921615763446</v>
       </c>
       <c r="L84" t="n">
         <v>0.35</v>
@@ -4625,7 +4625,7 @@
         <v>11</v>
       </c>
       <c r="K85" t="n">
-        <v>40</v>
+        <v>710.6521692390858</v>
       </c>
       <c r="L85" t="n">
         <v>0.35</v>
@@ -4717,7 +4717,7 @@
         <v>11</v>
       </c>
       <c r="K87" t="n">
-        <v>5</v>
+        <v>16.25282672335905</v>
       </c>
       <c r="L87" t="n">
         <v>0.38</v>
@@ -4771,7 +4771,7 @@
         <v>11</v>
       </c>
       <c r="K88" t="n">
-        <v>10</v>
+        <v>-1.252826723359046</v>
       </c>
       <c r="L88" t="n">
         <v>0.35</v>
@@ -4825,7 +4825,7 @@
         <v>11</v>
       </c>
       <c r="K89" t="n">
-        <v>40</v>
+        <v>731.2550493177478</v>
       </c>
       <c r="L89" t="n">
         <v>0.35</v>
@@ -4917,7 +4917,7 @@
         <v>11</v>
       </c>
       <c r="K91" t="n">
-        <v>5</v>
+        <v>16.27638493417473</v>
       </c>
       <c r="L91" t="n">
         <v>0.38</v>
@@ -4971,7 +4971,7 @@
         <v>11</v>
       </c>
       <c r="K92" t="n">
-        <v>10</v>
+        <v>-1.276384934174725</v>
       </c>
       <c r="L92" t="n">
         <v>0.35</v>
@@ -5025,7 +5025,7 @@
         <v>11</v>
       </c>
       <c r="K93" t="n">
-        <v>40</v>
+        <v>751.2931442926822</v>
       </c>
       <c r="L93" t="n">
         <v>0.35</v>
@@ -5117,7 +5117,7 @@
         <v>11</v>
       </c>
       <c r="K95" t="n">
-        <v>5</v>
+        <v>16.29873448745715</v>
       </c>
       <c r="L95" t="n">
         <v>0.38</v>
@@ -5171,7 +5171,7 @@
         <v>11</v>
       </c>
       <c r="K96" t="n">
-        <v>10</v>
+        <v>-1.298734487457146</v>
       </c>
       <c r="L96" t="n">
         <v>0.35</v>
@@ -5225,7 +5225,7 @@
         <v>11</v>
       </c>
       <c r="K97" t="n">
-        <v>40</v>
+        <v>770.81050211428</v>
       </c>
       <c r="L97" t="n">
         <v>0.35</v>
@@ -5317,7 +5317,7 @@
         <v>11</v>
       </c>
       <c r="K99" t="n">
-        <v>5</v>
+        <v>16.31999337493519</v>
       </c>
       <c r="L99" t="n">
         <v>0.38</v>
@@ -5371,7 +5371,7 @@
         <v>11</v>
       </c>
       <c r="K100" t="n">
-        <v>10</v>
+        <v>-1.319993374935187</v>
       </c>
       <c r="L100" t="n">
         <v>0.35</v>
@@ -5425,7 +5425,7 @@
         <v>11</v>
       </c>
       <c r="K101" t="n">
-        <v>40</v>
+        <v>789.8457265049625</v>
       </c>
       <c r="L101" t="n">
         <v>0.35</v>
@@ -5517,7 +5517,7 @@
         <v>11</v>
       </c>
       <c r="K103" t="n">
-        <v>5</v>
+        <v>16.34026311156539</v>
       </c>
       <c r="L103" t="n">
         <v>0.38</v>
@@ -5571,7 +5571,7 @@
         <v>11</v>
       </c>
       <c r="K104" t="n">
-        <v>10</v>
+        <v>-1.340263111565392</v>
       </c>
       <c r="L104" t="n">
         <v>0.35</v>
@@ -5625,7 +5625,7 @@
         <v>11</v>
       </c>
       <c r="K105" t="n">
-        <v>40</v>
+        <v>808.4328748799342</v>
       </c>
       <c r="L105" t="n">
         <v>0.35</v>
@@ -5717,7 +5717,7 @@
         <v>11</v>
       </c>
       <c r="K107" t="n">
-        <v>5</v>
+        <v>16.35963166739587</v>
       </c>
       <c r="L107" t="n">
         <v>0.38</v>
@@ -5771,7 +5771,7 @@
         <v>11</v>
       </c>
       <c r="K108" t="n">
-        <v>10</v>
+        <v>-1.35963166739587</v>
       </c>
       <c r="L108" t="n">
         <v>0.35</v>
@@ -5825,7 +5825,7 @@
         <v>11</v>
       </c>
       <c r="K109" t="n">
-        <v>40</v>
+        <v>826.6021743832512</v>
       </c>
       <c r="L109" t="n">
         <v>0.35</v>
@@ -5917,7 +5917,7 @@
         <v>11</v>
       </c>
       <c r="K111" t="n">
-        <v>5</v>
+        <v>16.37817577499296</v>
       </c>
       <c r="L111" t="n">
         <v>0.38</v>
@@ -5971,7 +5971,7 @@
         <v>11</v>
       </c>
       <c r="K112" t="n">
-        <v>10</v>
+        <v>-1.378175774992965</v>
       </c>
       <c r="L112" t="n">
         <v>0.35</v>
@@ -6025,7 +6025,7 @@
         <v>11</v>
       </c>
       <c r="K113" t="n">
-        <v>40</v>
+        <v>844.3805991397495</v>
       </c>
       <c r="L113" t="n">
         <v>0.35</v>
@@ -6117,7 +6117,7 @@
         <v>11</v>
       </c>
       <c r="K115" t="n">
-        <v>5</v>
+        <v>16.39596276552494</v>
       </c>
       <c r="L115" t="n">
         <v>0.38</v>
@@ -6171,7 +6171,7 @@
         <v>11</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
+        <v>-1.395962765524942</v>
       </c>
       <c r="L116" t="n">
         <v>0.35</v>
@@ -6225,7 +6225,7 @@
         <v>11</v>
       </c>
       <c r="K117" t="n">
-        <v>40</v>
+        <v>861.7923402491377</v>
       </c>
       <c r="L117" t="n">
         <v>0.35</v>
@@ -6317,7 +6317,7 @@
         <v>11</v>
       </c>
       <c r="K119" t="n">
-        <v>5</v>
+        <v>16.41305204452057</v>
       </c>
       <c r="L119" t="n">
         <v>0.38</v>
@@ -6371,7 +6371,7 @@
         <v>11</v>
       </c>
       <c r="K120" t="n">
-        <v>10</v>
+        <v>-1.413052044520573</v>
       </c>
       <c r="L120" t="n">
         <v>0.35</v>
@@ -6425,7 +6425,7 @@
         <v>11</v>
       </c>
       <c r="K121" t="n">
-        <v>40</v>
+        <v>878.8591919190293</v>
       </c>
       <c r="L121" t="n">
         <v>0.35</v>
@@ -6517,7 +6517,7 @@
         <v>11</v>
       </c>
       <c r="K123" t="n">
-        <v>5</v>
+        <v>16.42949628896266</v>
       </c>
       <c r="L123" t="n">
         <v>0.38</v>
@@ -6571,7 +6571,7 @@
         <v>11</v>
       </c>
       <c r="K124" t="n">
-        <v>10</v>
+        <v>-1.429496288962657</v>
       </c>
       <c r="L124" t="n">
         <v>0.35</v>
@@ -6625,7 +6625,7 @@
         <v>11</v>
       </c>
       <c r="K125" t="n">
-        <v>40</v>
+        <v>895.6008713311152</v>
       </c>
       <c r="L125" t="n">
         <v>0.35</v>
@@ -6717,7 +6717,7 @@
         <v>11</v>
       </c>
       <c r="K127" t="n">
-        <v>5</v>
+        <v>16.44534242656911</v>
       </c>
       <c r="L127" t="n">
         <v>0.38</v>
@@ -6771,7 +6771,7 @@
         <v>11</v>
       </c>
       <c r="K128" t="n">
-        <v>10</v>
+        <v>-1.445342426569105</v>
       </c>
       <c r="L128" t="n">
         <v>0.35</v>
@@ -6825,7 +6825,7 @@
         <v>11</v>
       </c>
       <c r="K129" t="n">
-        <v>40</v>
+        <v>912.0352856318312</v>
       </c>
       <c r="L129" t="n">
         <v>0.35</v>
@@ -6917,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="K131" t="n">
-        <v>5</v>
+        <v>16.46063244315386</v>
       </c>
       <c r="L131" t="n">
         <v>0.38</v>
@@ -6971,7 +6971,7 @@
         <v>11</v>
       </c>
       <c r="K132" t="n">
-        <v>10</v>
+        <v>-1.460632443153862</v>
       </c>
       <c r="L132" t="n">
         <v>0.35</v>
@@ -7025,7 +7025,7 @@
         <v>11</v>
       </c>
       <c r="K133" t="n">
-        <v>40</v>
+        <v>928.1787563535482</v>
       </c>
       <c r="L133" t="n">
         <v>0.35</v>
@@ -7117,7 +7117,7 @@
         <v>11</v>
       </c>
       <c r="K135" t="n">
-        <v>5</v>
+        <v>16.47540405306076</v>
       </c>
       <c r="L135" t="n">
         <v>0.38</v>
@@ -7171,7 +7171,7 @@
         <v>11</v>
       </c>
       <c r="K136" t="n">
-        <v>10</v>
+        <v>-1.475404053060757</v>
       </c>
       <c r="L136" t="n">
         <v>0.35</v>
@@ -7225,7 +7225,7 @@
         <v>11</v>
       </c>
       <c r="K137" t="n">
-        <v>40</v>
+        <v>944.04620927924</v>
       </c>
       <c r="L137" t="n">
         <v>0.35</v>
@@ -7317,7 +7317,7 @@
         <v>11</v>
       </c>
       <c r="K139" t="n">
-        <v>5</v>
+        <v>16.48969125962555</v>
       </c>
       <c r="L139" t="n">
         <v>0.38</v>
@@ -7371,7 +7371,7 @@
         <v>11</v>
       </c>
       <c r="K140" t="n">
-        <v>10</v>
+        <v>-1.489691259625552</v>
       </c>
       <c r="L140" t="n">
         <v>0.35</v>
@@ -7425,7 +7425,7 @@
         <v>11</v>
       </c>
       <c r="K141" t="n">
-        <v>40</v>
+        <v>959.6513360398068</v>
       </c>
       <c r="L141" t="n">
         <v>0.35</v>
@@ -7517,7 +7517,7 @@
         <v>11</v>
       </c>
       <c r="K143" t="n">
-        <v>5</v>
+        <v>16.50352482662688</v>
       </c>
       <c r="L143" t="n">
         <v>0.38</v>
@@ -7571,7 +7571,7 @@
         <v>11</v>
       </c>
       <c r="K144" t="n">
-        <v>10</v>
+        <v>-1.503524826626883</v>
       </c>
       <c r="L144" t="n">
         <v>0.35</v>
@@ -7625,7 +7625,7 @@
         <v>11</v>
       </c>
       <c r="K145" t="n">
-        <v>40</v>
+        <v>975.0067324236636</v>
       </c>
       <c r="L145" t="n">
         <v>0.35</v>
@@ -7717,7 +7717,7 @@
         <v>11</v>
       </c>
       <c r="K147" t="n">
-        <v>5</v>
+        <v>16.516932677169</v>
       </c>
       <c r="L147" t="n">
         <v>0.38</v>
@@ -7771,7 +7771,7 @@
         <v>11</v>
       </c>
       <c r="K148" t="n">
-        <v>10</v>
+        <v>-1.516932677169002</v>
       </c>
       <c r="L148" t="n">
         <v>0.35</v>
@@ -7825,7 +7825,7 @@
         <v>11</v>
       </c>
       <c r="K149" t="n">
-        <v>40</v>
+        <v>990.1240173735575</v>
       </c>
       <c r="L149" t="n">
         <v>0.35</v>
@@ -7917,7 +7917,7 @@
         <v>11</v>
       </c>
       <c r="K151" t="n">
-        <v>5</v>
+        <v>16.52994023300098</v>
       </c>
       <c r="L151" t="n">
         <v>0.38</v>
@@ -7971,7 +7971,7 @@
         <v>11</v>
       </c>
       <c r="K152" t="n">
-        <v>10</v>
+        <v>-1.529940233000978</v>
       </c>
       <c r="L152" t="n">
         <v>0.35</v>
@@ -8025,7 +8025,7 @@
         <v>11</v>
       </c>
       <c r="K153" t="n">
-        <v>40</v>
+        <v>1005.013935867775</v>
       </c>
       <c r="L153" t="n">
         <v>0.35</v>
@@ -8117,7 +8117,7 @@
         <v>11</v>
       </c>
       <c r="K155" t="n">
-        <v>5</v>
+        <v>16.5425707046369</v>
       </c>
       <c r="L155" t="n">
         <v>0.38</v>
@@ -8171,7 +8171,7 @@
         <v>11</v>
       </c>
       <c r="K156" t="n">
-        <v>10</v>
+        <v>-1.542570704636898</v>
       </c>
       <c r="L156" t="n">
         <v>0.35</v>
@@ -8225,7 +8225,7 @@
         <v>11</v>
       </c>
       <c r="K157" t="n">
-        <v>40</v>
+        <v>1019.686448275606</v>
       </c>
       <c r="L157" t="n">
         <v>0.35</v>
@@ -8317,7 +8317,7 @@
         <v>11</v>
       </c>
       <c r="K159" t="n">
-        <v>5</v>
+        <v>16.55484534059658</v>
       </c>
       <c r="L159" t="n">
         <v>0.38</v>
@@ -8371,7 +8371,7 @@
         <v>11</v>
       </c>
       <c r="K160" t="n">
-        <v>10</v>
+        <v>-1.554845340596575</v>
       </c>
       <c r="L160" t="n">
         <v>0.35</v>
@@ -8425,7 +8425,7 @@
         <v>11</v>
       </c>
       <c r="K161" t="n">
-        <v>40</v>
+        <v>1034.150808298965</v>
       </c>
       <c r="L161" t="n">
         <v>0.35</v>
@@ -8517,7 +8517,7 @@
         <v>11</v>
       </c>
       <c r="K163" t="n">
-        <v>5</v>
+        <v>16.56678364248988</v>
       </c>
       <c r="L163" t="n">
         <v>0.38</v>
@@ -8571,7 +8571,7 @@
         <v>11</v>
       </c>
       <c r="K164" t="n">
-        <v>10</v>
+        <v>-1.566783642489884</v>
       </c>
       <c r="L164" t="n">
         <v>0.35</v>
@@ -8625,7 +8625,7 @@
         <v>11</v>
       </c>
       <c r="K165" t="n">
-        <v>40</v>
+        <v>1048.415631233094</v>
       </c>
       <c r="L165" t="n">
         <v>0.35</v>
@@ -8717,7 +8717,7 @@
         <v>11</v>
       </c>
       <c r="K167" t="n">
-        <v>5</v>
+        <v>16.57840355141225</v>
       </c>
       <c r="L167" t="n">
         <v>0.38</v>
@@ -8771,7 +8771,7 @@
         <v>11</v>
       </c>
       <c r="K168" t="n">
-        <v>10</v>
+        <v>-1.578403551412254</v>
       </c>
       <c r="L168" t="n">
         <v>0.35</v>
@@ -8825,7 +8825,7 @@
         <v>11</v>
       </c>
       <c r="K169" t="n">
-        <v>40</v>
+        <v>1062.488953976638</v>
       </c>
       <c r="L169" t="n">
         <v>0.35</v>
@@ -8917,7 +8917,7 @@
         <v>11</v>
       </c>
       <c r="K171" t="n">
-        <v>5</v>
+        <v>16.58972161012418</v>
       </c>
       <c r="L171" t="n">
         <v>0.38</v>
@@ -8971,7 +8971,7 @@
         <v>11</v>
       </c>
       <c r="K172" t="n">
-        <v>10</v>
+        <v>-1.589721610124183</v>
       </c>
       <c r="L172" t="n">
         <v>0.35</v>
@@ -9025,7 +9025,7 @@
         <v>11</v>
       </c>
       <c r="K173" t="n">
-        <v>40</v>
+        <v>1076.378287978187</v>
       </c>
       <c r="L173" t="n">
         <v>0.35</v>
@@ -9117,7 +9117,7 @@
         <v>11</v>
       </c>
       <c r="K175" t="n">
-        <v>5</v>
+        <v>16.60075310469468</v>
       </c>
       <c r="L175" t="n">
         <v>0.38</v>
@@ -9171,7 +9171,7 @@
         <v>11</v>
       </c>
       <c r="K176" t="n">
-        <v>10</v>
+        <v>-1.600753104694675</v>
       </c>
       <c r="L176" t="n">
         <v>0.35</v>
@@ -9225,7 +9225,7 @@
         <v>11</v>
       </c>
       <c r="K177" t="n">
-        <v>40</v>
+        <v>1090.09066610963</v>
       </c>
       <c r="L177" t="n">
         <v>0.35</v>
@@ -9317,7 +9317,7 @@
         <v>11</v>
       </c>
       <c r="K179" t="n">
-        <v>5</v>
+        <v>16.61151218865215</v>
       </c>
       <c r="L179" t="n">
         <v>0.38</v>
@@ -9371,7 +9371,7 @@
         <v>11</v>
       </c>
       <c r="K180" t="n">
-        <v>10</v>
+        <v>-1.611512188652146</v>
       </c>
       <c r="L180" t="n">
         <v>0.35</v>
@@ -9425,7 +9425,7 @@
         <v>11</v>
       </c>
       <c r="K181" t="n">
-        <v>40</v>
+        <v>1103.632684296646</v>
       </c>
       <c r="L181" t="n">
         <v>0.35</v>
@@ -9517,7 +9517,7 @@
         <v>11</v>
       </c>
       <c r="K183" t="n">
-        <v>5</v>
+        <v>16.62201199217272</v>
       </c>
       <c r="L183" t="n">
         <v>0.38</v>
@@ -9571,7 +9571,7 @@
         <v>11</v>
       </c>
       <c r="K184" t="n">
-        <v>10</v>
+        <v>-1.622011992172716</v>
       </c>
       <c r="L184" t="n">
         <v>0.35</v>
@@ -9625,7 +9625,7 @@
         <v>11</v>
       </c>
       <c r="K185" t="n">
-        <v>40</v>
+        <v>1117.010538605748</v>
       </c>
       <c r="L185" t="n">
         <v>0.35</v>
@@ -9717,7 +9717,7 @@
         <v>11</v>
       </c>
       <c r="K187" t="n">
-        <v>5</v>
+        <v>16.6322647184191</v>
       </c>
       <c r="L187" t="n">
         <v>0.38</v>
@@ -9771,7 +9771,7 @@
         <v>11</v>
       </c>
       <c r="K188" t="n">
-        <v>10</v>
+        <v>-1.632264718419105</v>
       </c>
       <c r="L188" t="n">
         <v>0.35</v>
@@ -9825,7 +9825,7 @@
         <v>11</v>
       </c>
       <c r="K189" t="n">
-        <v>40</v>
+        <v>1130.230058379615</v>
       </c>
       <c r="L189" t="n">
         <v>0.35</v>
@@ -9917,7 +9917,7 @@
         <v>11</v>
       </c>
       <c r="K191" t="n">
-        <v>5</v>
+        <v>16.64228172880292</v>
       </c>
       <c r="L191" t="n">
         <v>0.38</v>
@@ -9971,7 +9971,7 @@
         <v>11</v>
       </c>
       <c r="K192" t="n">
-        <v>10</v>
+        <v>-1.642281728802921</v>
       </c>
       <c r="L192" t="n">
         <v>0.35</v>
@@ -10025,7 +10025,7 @@
         <v>11</v>
       </c>
       <c r="K193" t="n">
-        <v>40</v>
+        <v>1143.296735923474</v>
       </c>
       <c r="L193" t="n">
         <v>0.35</v>
@@ -10117,7 +10117,7 @@
         <v>11</v>
       </c>
       <c r="K195" t="n">
-        <v>5</v>
+        <v>16.65207361866437</v>
       </c>
       <c r="L195" t="n">
         <v>0.38</v>
@@ -10171,7 +10171,7 @@
         <v>11</v>
       </c>
       <c r="K196" t="n">
-        <v>10</v>
+        <v>-1.652073618664371</v>
       </c>
       <c r="L196" t="n">
         <v>0.35</v>
@@ -10225,7 +10225,7 @@
         <v>11</v>
       </c>
       <c r="K197" t="n">
-        <v>40</v>
+        <v>1156.21575317142</v>
       </c>
       <c r="L197" t="n">
         <v>0.35</v>
@@ -10317,7 +10317,7 @@
         <v>11</v>
       </c>
       <c r="K199" t="n">
-        <v>5</v>
+        <v>16.6616502846334</v>
       </c>
       <c r="L199" t="n">
         <v>0.38</v>
@@ -10371,7 +10371,7 @@
         <v>11</v>
       </c>
       <c r="K200" t="n">
-        <v>10</v>
+        <v>-1.661650284633399</v>
       </c>
       <c r="L200" t="n">
         <v>0.35</v>
@@ -10425,7 +10425,7 @@
         <v>11</v>
       </c>
       <c r="K201" t="n">
-        <v>40</v>
+        <v>1168.992005699884</v>
       </c>
       <c r="L201" t="n">
         <v>0.35</v>
@@ -10517,7 +10517,7 @@
         <v>11</v>
       </c>
       <c r="K203" t="n">
-        <v>5</v>
+        <v>16.67102098474591</v>
       </c>
       <c r="L203" t="n">
         <v>0.38</v>
@@ -10571,7 +10571,7 @@
         <v>11</v>
       </c>
       <c r="K204" t="n">
-        <v>10</v>
+        <v>-1.671020984745912</v>
       </c>
       <c r="L204" t="n">
         <v>0.35</v>
@@ -10625,7 +10625,7 @@
         <v>11</v>
       </c>
       <c r="K205" t="n">
-        <v>40</v>
+        <v>1181.630124403877</v>
       </c>
       <c r="L205" t="n">
         <v>0.35</v>
@@ -10717,7 +10717,7 @@
         <v>11</v>
       </c>
       <c r="K207" t="n">
-        <v>5</v>
+        <v>16.68019439223049</v>
       </c>
       <c r="L207" t="n">
         <v>0.38</v>
@@ -10771,7 +10771,7 @@
         <v>11</v>
       </c>
       <c r="K208" t="n">
-        <v>10</v>
+        <v>-1.680194392230494</v>
       </c>
       <c r="L208" t="n">
         <v>0.35</v>
@@ -10825,7 +10825,7 @@
         <v>11</v>
       </c>
       <c r="K209" t="n">
-        <v>40</v>
+        <v>1194.134495108153</v>
       </c>
       <c r="L209" t="n">
         <v>0.35</v>
@@ -10917,7 +10917,7 @@
         <v>11</v>
       </c>
       <c r="K211" t="n">
-        <v>5</v>
+        <v>16.68917864374886</v>
       </c>
       <c r="L211" t="n">
         <v>0.38</v>
@@ -10971,7 +10971,7 @@
         <v>11</v>
       </c>
       <c r="K212" t="n">
-        <v>10</v>
+        <v>-1.689178643748857</v>
       </c>
       <c r="L212" t="n">
         <v>0.35</v>
@@ -11025,7 +11025,7 @@
         <v>11</v>
       </c>
       <c r="K213" t="n">
-        <v>40</v>
+        <v>1206.509276348793</v>
       </c>
       <c r="L213" t="n">
         <v>0.35</v>
@@ -11117,7 +11117,7 @@
         <v>11</v>
       </c>
       <c r="K215" t="n">
-        <v>5</v>
+        <v>16.69798138276247</v>
       </c>
       <c r="L215" t="n">
         <v>0.38</v>
@@ -11171,7 +11171,7 @@
         <v>11</v>
       </c>
       <c r="K216" t="n">
-        <v>10</v>
+        <v>-1.697981382762471</v>
       </c>
       <c r="L216" t="n">
         <v>0.35</v>
@@ -11225,7 +11225,7 @@
         <v>11</v>
       </c>
       <c r="K217" t="n">
-        <v>40</v>
+        <v>1218.75841552958</v>
       </c>
       <c r="L217" t="n">
         <v>0.35</v>
@@ -11317,7 +11317,7 @@
         <v>11</v>
       </c>
       <c r="K219" t="n">
-        <v>5</v>
+        <v>16.70660979860459</v>
       </c>
       <c r="L219" t="n">
         <v>0.38</v>
@@ -11371,7 +11371,7 @@
         <v>11</v>
       </c>
       <c r="K220" t="n">
-        <v>10</v>
+        <v>-1.706609798604589</v>
       </c>
       <c r="L220" t="n">
         <v>0.35</v>
@@ -11425,7 +11425,7 @@
         <v>11</v>
       </c>
       <c r="K221" t="n">
-        <v>40</v>
+        <v>1230.885663631133</v>
       </c>
       <c r="L221" t="n">
         <v>0.35</v>
@@ -11517,7 +11517,7 @@
         <v>11</v>
       </c>
       <c r="K223" t="n">
-        <v>5</v>
+        <v>16.7150706617581</v>
       </c>
       <c r="L223" t="n">
         <v>0.38</v>
@@ -11571,7 +11571,7 @@
         <v>11</v>
       </c>
       <c r="K224" t="n">
-        <v>10</v>
+        <v>-1.715070661758102</v>
       </c>
       <c r="L224" t="n">
         <v>0.35</v>
@@ -11625,7 +11625,7 @@
         <v>11</v>
       </c>
       <c r="K225" t="n">
-        <v>40</v>
+        <v>1242.89458862815</v>
       </c>
       <c r="L225" t="n">
         <v>0.35</v>
@@ -11717,7 +11717,7 @@
         <v>11</v>
       </c>
       <c r="K227" t="n">
-        <v>5</v>
+        <v>16.72337035577297</v>
       </c>
       <c r="L227" t="n">
         <v>0.38</v>
@@ -11771,7 +11771,7 @@
         <v>11</v>
       </c>
       <c r="K228" t="n">
-        <v>10</v>
+        <v>-1.723370355772975</v>
       </c>
       <c r="L228" t="n">
         <v>0.35</v>
@@ -11825,7 +11825,7 @@
         <v>11</v>
       </c>
       <c r="K229" t="n">
-        <v>40</v>
+        <v>1254.78858775079</v>
       </c>
       <c r="L229" t="n">
         <v>0.35</v>
@@ -11917,7 +11917,7 @@
         <v>11</v>
       </c>
       <c r="K231" t="n">
-        <v>5</v>
+        <v>16.73151490620019</v>
       </c>
       <c r="L231" t="n">
         <v>0.38</v>
@@ -11971,7 +11971,7 @@
         <v>11</v>
       </c>
       <c r="K232" t="n">
-        <v>10</v>
+        <v>-1.731514906200186</v>
       </c>
       <c r="L232" t="n">
         <v>0.35</v>
@@ -12025,7 +12025,7 @@
         <v>11</v>
       </c>
       <c r="K233" t="n">
-        <v>40</v>
+        <v>1266.570898709624</v>
       </c>
       <c r="L233" t="n">
         <v>0.35</v>
@@ -12117,7 +12117,7 @@
         <v>11</v>
       </c>
       <c r="K235" t="n">
-        <v>5</v>
+        <v>16.73951000687071</v>
       </c>
       <c r="L235" t="n">
         <v>0.38</v>
@@ -12171,7 +12171,7 @@
         <v>11</v>
       </c>
       <c r="K236" t="n">
-        <v>10</v>
+        <v>-1.739510006870713</v>
       </c>
       <c r="L236" t="n">
         <v>0.35</v>
@@ -12225,7 +12225,7 @@
         <v>11</v>
       </c>
       <c r="K237" t="n">
-        <v>40</v>
+        <v>1278.244609989257</v>
       </c>
       <c r="L237" t="n">
         <v>0.35</v>
@@ -12317,7 +12317,7 @@
         <v>11</v>
       </c>
       <c r="K239" t="n">
-        <v>5</v>
+        <v>16.74736104380663</v>
       </c>
       <c r="L239" t="n">
         <v>0.38</v>
@@ -12371,7 +12371,7 @@
         <v>11</v>
       </c>
       <c r="K240" t="n">
-        <v>10</v>
+        <v>-1.747361043806634</v>
       </c>
       <c r="L240" t="n">
         <v>0.35</v>
@@ -12425,7 +12425,7 @@
         <v>11</v>
       </c>
       <c r="K241" t="n">
-        <v>40</v>
+        <v>1289.812670303355</v>
       </c>
       <c r="L241" t="n">
         <v>0.35</v>
@@ -12517,7 +12517,7 @@
         <v>11</v>
       </c>
       <c r="K243" t="n">
-        <v>5</v>
+        <v>16.75507311701586</v>
       </c>
       <c r="L243" t="n">
         <v>0.38</v>
@@ -12571,7 +12571,7 @@
         <v>11</v>
       </c>
       <c r="K244" t="n">
-        <v>10</v>
+        <v>-1.755073117015865</v>
       </c>
       <c r="L244" t="n">
         <v>0.35</v>
@@ -12625,7 +12625,7 @@
         <v>11</v>
       </c>
       <c r="K245" t="n">
-        <v>40</v>
+        <v>1301.277897293101</v>
       </c>
       <c r="L245" t="n">
         <v>0.35</v>
@@ -12717,7 +12717,7 @@
         <v>11</v>
       </c>
       <c r="K247" t="n">
-        <v>5</v>
+        <v>16.76265106039139</v>
       </c>
       <c r="L247" t="n">
         <v>0.38</v>
@@ -12771,7 +12771,7 @@
         <v>11</v>
       </c>
       <c r="K248" t="n">
-        <v>10</v>
+        <v>-1.762651060391391</v>
       </c>
       <c r="L248" t="n">
         <v>0.35</v>
@@ -12825,7 +12825,7 @@
         <v>11</v>
       </c>
       <c r="K249" t="n">
-        <v>40</v>
+        <v>1312.64298554178</v>
       </c>
       <c r="L249" t="n">
         <v>0.35</v>
@@ -12917,7 +12917,7 @@
         <v>11</v>
       </c>
       <c r="K251" t="n">
-        <v>5</v>
+        <v>16.77009945990946</v>
       </c>
       <c r="L251" t="n">
         <v>0.38</v>
@@ -12971,7 +12971,7 @@
         <v>11</v>
       </c>
       <c r="K252" t="n">
-        <v>10</v>
+        <v>-1.770099459909463</v>
       </c>
       <c r="L252" t="n">
         <v>0.35</v>
@@ -13025,7 +13025,7 @@
         <v>11</v>
       </c>
       <c r="K253" t="n">
-        <v>40</v>
+        <v>1323.91051397008</v>
       </c>
       <c r="L253" t="n">
         <v>0.35</v>
@@ -13117,7 +13117,7 @@
         <v>11</v>
       </c>
       <c r="K255" t="n">
-        <v>5</v>
+        <v>16.77742267029829</v>
       </c>
       <c r="L255" t="n">
         <v>0.38</v>
@@ -13171,7 +13171,7 @@
         <v>11</v>
       </c>
       <c r="K256" t="n">
-        <v>10</v>
+        <v>-1.777422670298289</v>
       </c>
       <c r="L256" t="n">
         <v>0.35</v>
@@ -13225,7 +13225,7 @@
         <v>11</v>
       </c>
       <c r="K257" t="n">
-        <v>40</v>
+        <v>1335.08295266961</v>
       </c>
       <c r="L257" t="n">
         <v>0.35</v>
@@ -13317,7 +13317,7 @@
         <v>11</v>
       </c>
       <c r="K259" t="n">
-        <v>5</v>
+        <v>16.78462483032897</v>
       </c>
       <c r="L259" t="n">
         <v>0.38</v>
@@ -13371,7 +13371,7 @@
         <v>11</v>
       </c>
       <c r="K260" t="n">
-        <v>10</v>
+        <v>-1.784624830328966</v>
       </c>
       <c r="L260" t="n">
         <v>0.35</v>
@@ -13425,7 +13425,7 @@
         <v>11</v>
       </c>
       <c r="K261" t="n">
-        <v>40</v>
+        <v>1346.162669225933</v>
       </c>
       <c r="L261" t="n">
         <v>0.35</v>
@@ -13517,7 +13517,7 @@
         <v>11</v>
       </c>
       <c r="K263" t="n">
-        <v>5</v>
+        <v>16.79170987686308</v>
       </c>
       <c r="L263" t="n">
         <v>0.38</v>
@@ -13571,7 +13571,7 @@
         <v>11</v>
       </c>
       <c r="K264" t="n">
-        <v>10</v>
+        <v>-1.791709876863081</v>
       </c>
       <c r="L264" t="n">
         <v>0.35</v>
@@ -13625,7 +13625,7 @@
         <v>11</v>
       </c>
       <c r="K265" t="n">
-        <v>40</v>
+        <v>1357.151934576955</v>
       </c>
       <c r="L265" t="n">
         <v>0.35</v>
@@ -13717,7 +13717,7 @@
         <v>11</v>
       </c>
       <c r="K267" t="n">
-        <v>5</v>
+        <v>16.79868155777633</v>
       </c>
       <c r="L267" t="n">
         <v>0.38</v>
@@ -13771,7 +13771,7 @@
         <v>11</v>
       </c>
       <c r="K268" t="n">
-        <v>10</v>
+        <v>-1.798681557776327</v>
       </c>
       <c r="L268" t="n">
         <v>0.35</v>
@@ -13825,7 +13825,7 @@
         <v>11</v>
       </c>
       <c r="K269" t="n">
-        <v>40</v>
+        <v>1368.052928447747</v>
       </c>
       <c r="L269" t="n">
         <v>0.35</v>
@@ -13917,7 +13917,7 @@
         <v>11</v>
       </c>
       <c r="K271" t="n">
-        <v>5</v>
+        <v>16.80554344386441</v>
       </c>
       <c r="L271" t="n">
         <v>0.38</v>
@@ -13971,7 +13971,7 @@
         <v>11</v>
       </c>
       <c r="K272" t="n">
-        <v>10</v>
+        <v>-1.805543443864412</v>
       </c>
       <c r="L272" t="n">
         <v>0.35</v>
@@ -14025,7 +14025,7 @@
         <v>11</v>
       </c>
       <c r="K273" t="n">
-        <v>40</v>
+        <v>1378.867744398621</v>
       </c>
       <c r="L273" t="n">
         <v>0.35</v>
@@ -14117,7 +14117,7 @@
         <v>11</v>
       </c>
       <c r="K275" t="n">
-        <v>5</v>
+        <v>16.81229893982589</v>
       </c>
       <c r="L275" t="n">
         <v>0.38</v>
@@ -14171,7 +14171,7 @@
         <v>11</v>
       </c>
       <c r="K276" t="n">
-        <v>10</v>
+        <v>-1.812298939825894</v>
       </c>
       <c r="L276" t="n">
         <v>0.35</v>
@@ -14225,7 +14225,7 @@
         <v>11</v>
       </c>
       <c r="K277" t="n">
-        <v>40</v>
+        <v>1389.59839451959</v>
       </c>
       <c r="L277" t="n">
         <v>0.35</v>
@@ -14317,7 +14317,7 @@
         <v>11</v>
       </c>
       <c r="K279" t="n">
-        <v>5</v>
+        <v>16.81895129440653</v>
       </c>
       <c r="L279" t="n">
         <v>0.38</v>
@@ -14371,7 +14371,7 @@
         <v>11</v>
       </c>
       <c r="K280" t="n">
-        <v>10</v>
+        <v>-1.818951294406531</v>
       </c>
       <c r="L280" t="n">
         <v>0.35</v>
@@ -14425,7 +14425,7 @@
         <v>11</v>
       </c>
       <c r="K281" t="n">
-        <v>40</v>
+        <v>1400.246813801019</v>
       </c>
       <c r="L281" t="n">
         <v>0.35</v>
@@ -14517,7 +14517,7 @@
         <v>11</v>
       </c>
       <c r="K283" t="n">
-        <v>5</v>
+        <v>16.82550360978082</v>
       </c>
       <c r="L283" t="n">
         <v>0.38</v>
@@ -14571,7 +14571,7 @@
         <v>11</v>
       </c>
       <c r="K284" t="n">
-        <v>10</v>
+        <v>-1.825503609780817</v>
       </c>
       <c r="L284" t="n">
         <v>0.35</v>
@@ -14625,7 +14625,7 @@
         <v>11</v>
       </c>
       <c r="K285" t="n">
-        <v>40</v>
+        <v>1410.814864207345</v>
       </c>
       <c r="L285" t="n">
         <v>0.35</v>
@@ -14717,7 +14717,7 @@
         <v>11</v>
       </c>
       <c r="K287" t="n">
-        <v>5</v>
+        <v>16.83195885023851</v>
       </c>
       <c r="L287" t="n">
         <v>0.38</v>
@@ -14771,7 +14771,7 @@
         <v>11</v>
       </c>
       <c r="K288" t="n">
-        <v>10</v>
+        <v>-1.831958850238507</v>
       </c>
       <c r="L288" t="n">
         <v>0.35</v>
@@ -14825,7 +14825,7 @@
         <v>11</v>
       </c>
       <c r="K289" t="n">
-        <v>40</v>
+        <v>1421.304338478172</v>
       </c>
       <c r="L289" t="n">
         <v>0.35</v>
@@ -14917,7 +14917,7 @@
         <v>11</v>
       </c>
       <c r="K291" t="n">
-        <v>5</v>
+        <v>16.83831985023701</v>
       </c>
       <c r="L291" t="n">
         <v>0.38</v>
@@ -14971,7 +14971,7 @@
         <v>11</v>
       </c>
       <c r="K292" t="n">
-        <v>10</v>
+        <v>-1.83831985023701</v>
       </c>
       <c r="L292" t="n">
         <v>0.35</v>
@@ -15025,7 +15025,7 @@
         <v>11</v>
       </c>
       <c r="K293" t="n">
-        <v>40</v>
+        <v>1431.7169636787</v>
       </c>
       <c r="L293" t="n">
         <v>0.35</v>
@@ -15117,7 +15117,7 @@
         <v>11</v>
       </c>
       <c r="K295" t="n">
-        <v>5</v>
+        <v>16.84458932187443</v>
       </c>
       <c r="L295" t="n">
         <v>0.38</v>
@@ -15171,7 +15171,7 @@
         <v>11</v>
       </c>
       <c r="K296" t="n">
-        <v>10</v>
+        <v>-1.844589321874427</v>
       </c>
       <c r="L296" t="n">
         <v>0.35</v>
@@ -15225,7 +15225,7 @@
         <v>11</v>
       </c>
       <c r="K297" t="n">
-        <v>40</v>
+        <v>1442.054404519413</v>
       </c>
       <c r="L297" t="n">
         <v>0.35</v>
@@ -15317,7 +15317,7 @@
         <v>11</v>
       </c>
       <c r="K299" t="n">
-        <v>5</v>
+        <v>16.85076986183252</v>
       </c>
       <c r="L299" t="n">
         <v>0.38</v>
@@ -15371,7 +15371,7 @@
         <v>11</v>
       </c>
       <c r="K300" t="n">
-        <v>10</v>
+        <v>-1.850769861832521</v>
       </c>
       <c r="L300" t="n">
         <v>0.35</v>
@@ -15425,7 +15425,7 @@
         <v>11</v>
       </c>
       <c r="K301" t="n">
-        <v>40</v>
+        <v>1452.318266463079</v>
       </c>
       <c r="L301" t="n">
         <v>0.35</v>
@@ -15517,7 +15517,7 @@
         <v>11</v>
       </c>
       <c r="K303" t="n">
-        <v>5</v>
+        <v>16.8568639578341</v>
       </c>
       <c r="L303" t="n">
         <v>0.38</v>
@@ -15571,7 +15571,7 @@
         <v>11</v>
       </c>
       <c r="K304" t="n">
-        <v>10</v>
+        <v>-1.856863957834104</v>
       </c>
       <c r="L304" t="n">
         <v>0.35</v>
@@ -15625,7 +15625,7 @@
         <v>11</v>
       </c>
       <c r="K305" t="n">
-        <v>40</v>
+        <v>1462.510098635495</v>
       </c>
       <c r="L305" t="n">
         <v>0.35</v>
@@ -15717,7 +15717,7 @@
         <v>11</v>
       </c>
       <c r="K307" t="n">
-        <v>5</v>
+        <v>16.86287399465508</v>
       </c>
       <c r="L307" t="n">
         <v>0.38</v>
@@ -15771,7 +15771,7 @@
         <v>11</v>
       </c>
       <c r="K308" t="n">
-        <v>10</v>
+        <v>-1.862873994655079</v>
       </c>
       <c r="L308" t="n">
         <v>0.35</v>
@@ -15825,7 +15825,7 @@
         <v>11</v>
       </c>
       <c r="K309" t="n">
-        <v>40</v>
+        <v>1472.631396554919</v>
       </c>
       <c r="L309" t="n">
         <v>0.35</v>
@@ -15917,7 +15917,7 @@
         <v>11</v>
       </c>
       <c r="K311" t="n">
-        <v>5</v>
+        <v>16.86880225972742</v>
       </c>
       <c r="L311" t="n">
         <v>0.38</v>
@@ -15971,7 +15971,7 @@
         <v>11</v>
       </c>
       <c r="K312" t="n">
-        <v>10</v>
+        <v>-1.868802259727417</v>
       </c>
       <c r="L312" t="n">
         <v>0.35</v>
@@ -16025,7 +16025,7 @@
         <v>11</v>
       </c>
       <c r="K313" t="n">
-        <v>40</v>
+        <v>1482.683604693791</v>
       </c>
       <c r="L313" t="n">
         <v>0.35</v>
@@ -16117,7 +16117,7 @@
         <v>11</v>
       </c>
       <c r="K315" t="n">
-        <v>5</v>
+        <v>16.87465094836608</v>
       </c>
       <c r="L315" t="n">
         <v>0.38</v>
@@ -16171,7 +16171,7 @@
         <v>11</v>
       </c>
       <c r="K316" t="n">
-        <v>10</v>
+        <v>-1.874650948366082</v>
       </c>
       <c r="L316" t="n">
         <v>0.35</v>
@@ -16225,7 +16225,7 @@
         <v>11</v>
       </c>
       <c r="K317" t="n">
-        <v>40</v>
+        <v>1492.668118885192</v>
       </c>
       <c r="L317" t="n">
         <v>0.35</v>
@@ -16317,7 +16317,7 @@
         <v>11</v>
       </c>
       <c r="K319" t="n">
-        <v>5</v>
+        <v>16.88042216864978</v>
       </c>
       <c r="L319" t="n">
         <v>0.38</v>
@@ -16371,7 +16371,7 @@
         <v>11</v>
       </c>
       <c r="K320" t="n">
-        <v>10</v>
+        <v>-1.880422168649783</v>
       </c>
       <c r="L320" t="n">
         <v>0.35</v>
@@ -16425,7 +16425,7 @@
         <v>11</v>
       </c>
       <c r="K321" t="n">
-        <v>40</v>
+        <v>1502.586288585364</v>
       </c>
       <c r="L321" t="n">
         <v>0.35</v>
@@ -16517,7 +16517,7 @@
         <v>11</v>
       </c>
       <c r="K323" t="n">
-        <v>5</v>
+        <v>16.88611794598267</v>
       </c>
       <c r="L323" t="n">
         <v>0.38</v>
@@ -16571,7 +16571,7 @@
         <v>11</v>
       </c>
       <c r="K324" t="n">
-        <v>10</v>
+        <v>-1.886117945982672</v>
       </c>
       <c r="L324" t="n">
         <v>0.35</v>
@@ -16625,7 +16625,7 @@
         <v>11</v>
       </c>
       <c r="K325" t="n">
-        <v>40</v>
+        <v>1512.4394190027</v>
       </c>
       <c r="L325" t="n">
         <v>0.35</v>
@@ -16717,7 +16717,7 @@
         <v>11</v>
       </c>
       <c r="K327" t="n">
-        <v>5</v>
+        <v>16.89174022736171</v>
       </c>
       <c r="L327" t="n">
         <v>0.38</v>
@@ -16771,7 +16771,7 @@
         <v>11</v>
       </c>
       <c r="K328" t="n">
-        <v>10</v>
+        <v>-1.891740227361712</v>
       </c>
       <c r="L328" t="n">
         <v>0.35</v>
@@ -16825,7 +16825,7 @@
         <v>11</v>
       </c>
       <c r="K329" t="n">
-        <v>40</v>
+        <v>1522.228773102685</v>
       </c>
       <c r="L329" t="n">
         <v>0.35</v>
@@ -16917,7 +16917,7 @@
         <v>11</v>
       </c>
       <c r="K331" t="n">
-        <v>5</v>
+        <v>16.89729088537224</v>
       </c>
       <c r="L331" t="n">
         <v>0.38</v>
@@ -16971,7 +16971,7 @@
         <v>11</v>
       </c>
       <c r="K332" t="n">
-        <v>10</v>
+        <v>-1.897290885372243</v>
       </c>
       <c r="L332" t="n">
         <v>0.35</v>
@@ -17025,7 +17025,7 @@
         <v>11</v>
       </c>
       <c r="K333" t="n">
-        <v>40</v>
+        <v>1531.955573497544</v>
       </c>
       <c r="L333" t="n">
         <v>0.35</v>
@@ -17117,7 +17117,7 @@
         <v>11</v>
       </c>
       <c r="K335" t="n">
-        <v>5</v>
+        <v>16.90277172193221</v>
       </c>
       <c r="L335" t="n">
         <v>0.38</v>
@@ -17171,7 +17171,7 @@
         <v>11</v>
       </c>
       <c r="K336" t="n">
-        <v>10</v>
+        <v>-1.902771721932208</v>
       </c>
       <c r="L336" t="n">
         <v>0.35</v>
@@ -17225,7 +17225,7 @@
         <v>11</v>
       </c>
       <c r="K337" t="n">
-        <v>40</v>
+        <v>1541.62100422856</v>
       </c>
       <c r="L337" t="n">
         <v>0.35</v>
@@ -17317,7 +17317,7 @@
         <v>11</v>
       </c>
       <c r="K339" t="n">
-        <v>5</v>
+        <v>16.9081844718038</v>
       </c>
       <c r="L339" t="n">
         <v>0.38</v>
@@ -17371,7 +17371,7 @@
         <v>11</v>
       </c>
       <c r="K340" t="n">
-        <v>10</v>
+        <v>-1.908184471803796</v>
       </c>
       <c r="L340" t="n">
         <v>0.35</v>
@@ -17425,7 +17425,7 @@
         <v>11</v>
       </c>
       <c r="K341" t="n">
-        <v>40</v>
+        <v>1551.226212448448</v>
       </c>
       <c r="L341" t="n">
         <v>0.35</v>
@@ -17517,7 +17517,7 @@
         <v>11</v>
       </c>
       <c r="K343" t="n">
-        <v>5</v>
+        <v>16.91353080588967</v>
       </c>
       <c r="L343" t="n">
         <v>0.38</v>
@@ -17571,7 +17571,7 @@
         <v>11</v>
       </c>
       <c r="K344" t="n">
-        <v>10</v>
+        <v>-1.913530805889675</v>
       </c>
       <c r="L344" t="n">
         <v>0.35</v>
@@ -17625,7 +17625,7 @@
         <v>11</v>
       </c>
       <c r="K345" t="n">
-        <v>40</v>
+        <v>1560.772310010541</v>
       </c>
       <c r="L345" t="n">
         <v>0.35</v>
@@ -17717,7 +17717,7 @@
         <v>11</v>
       </c>
       <c r="K347" t="n">
-        <v>5</v>
+        <v>16.91881233432936</v>
       </c>
       <c r="L347" t="n">
         <v>0.38</v>
@@ -17771,7 +17771,7 @@
         <v>11</v>
       </c>
       <c r="K348" t="n">
-        <v>10</v>
+        <v>-1.91881233432936</v>
       </c>
       <c r="L348" t="n">
         <v>0.35</v>
@@ -17825,7 +17825,7 @@
         <v>11</v>
       </c>
       <c r="K349" t="n">
-        <v>40</v>
+        <v>1570.260374971019</v>
       </c>
       <c r="L349" t="n">
         <v>0.35</v>
@@ -17917,7 +17917,7 @@
         <v>11</v>
       </c>
       <c r="K351" t="n">
-        <v>5</v>
+        <v>16.92403060941025</v>
       </c>
       <c r="L351" t="n">
         <v>0.38</v>
@@ -17971,7 +17971,7 @@
         <v>11</v>
       </c>
       <c r="K352" t="n">
-        <v>10</v>
+        <v>-1.924030609410245</v>
       </c>
       <c r="L352" t="n">
         <v>0.35</v>
@@ -18025,7 +18025,7 @@
         <v>11</v>
       </c>
       <c r="K353" t="n">
-        <v>40</v>
+        <v>1579.691453009925</v>
       </c>
       <c r="L353" t="n">
         <v>0.35</v>
@@ -18117,7 +18117,7 @@
         <v>11</v>
       </c>
       <c r="K355" t="n">
-        <v>5</v>
+        <v>16.9291871283063</v>
       </c>
       <c r="L355" t="n">
         <v>0.38</v>
@@ -18171,7 +18171,7 @@
         <v>11</v>
       </c>
       <c r="K356" t="n">
-        <v>10</v>
+        <v>-1.9291871283063</v>
       </c>
       <c r="L356" t="n">
         <v>0.35</v>
@@ -18225,7 +18225,7 @@
         <v>11</v>
       </c>
       <c r="K357" t="n">
-        <v>40</v>
+        <v>1589.066558776281</v>
       </c>
       <c r="L357" t="n">
         <v>0.35</v>
@@ -18317,7 +18317,7 @@
         <v>11</v>
       </c>
       <c r="K359" t="n">
-        <v>5</v>
+        <v>16.93428333565663</v>
       </c>
       <c r="L359" t="n">
         <v>0.38</v>
@@ -18371,7 +18371,7 @@
         <v>11</v>
       </c>
       <c r="K360" t="n">
-        <v>10</v>
+        <v>-1.934283335656634</v>
       </c>
       <c r="L360" t="n">
         <v>0.35</v>
@@ -18425,7 +18425,7 @@
         <v>11</v>
       </c>
       <c r="K361" t="n">
-        <v>40</v>
+        <v>1598.386677162186</v>
       </c>
       <c r="L361" t="n">
         <v>0.35</v>
@@ -18517,7 +18517,7 @@
         <v>11</v>
       </c>
       <c r="K363" t="n">
-        <v>5</v>
+        <v>16.939320625995</v>
       </c>
       <c r="L363" t="n">
         <v>0.38</v>
@@ -18571,7 +18571,7 @@
         <v>11</v>
       </c>
       <c r="K364" t="n">
-        <v>10</v>
+        <v>-1.939320625995002</v>
       </c>
       <c r="L364" t="n">
         <v>0.35</v>
@@ -18625,7 +18625,7 @@
         <v>11</v>
       </c>
       <c r="K365" t="n">
-        <v>40</v>
+        <v>1607.652764510439</v>
       </c>
       <c r="L365" t="n">
         <v>0.35</v>
@@ -18717,7 +18717,7 @@
         <v>11</v>
       </c>
       <c r="K367" t="n">
-        <v>5</v>
+        <v>16.94430034604045</v>
       </c>
       <c r="L367" t="n">
         <v>0.38</v>
@@ -18771,7 +18771,7 @@
         <v>11</v>
       </c>
       <c r="K368" t="n">
-        <v>10</v>
+        <v>-1.94430034604045</v>
       </c>
       <c r="L368" t="n">
         <v>0.35</v>
@@ -18825,7 +18825,7 @@
         <v>11</v>
       </c>
       <c r="K369" t="n">
-        <v>40</v>
+        <v>1616.865749759868</v>
       </c>
       <c r="L369" t="n">
         <v>0.35</v>
@@ -18917,7 +18917,7 @@
         <v>11</v>
       </c>
       <c r="K371" t="n">
-        <v>5</v>
+        <v>16.94922379685855</v>
       </c>
       <c r="L371" t="n">
         <v>0.38</v>
@@ -18971,7 +18971,7 @@
         <v>11</v>
       </c>
       <c r="K372" t="n">
-        <v>10</v>
+        <v>-1.949223796858551</v>
       </c>
       <c r="L372" t="n">
         <v>0.35</v>
@@ -19025,7 +19025,7 @@
         <v>11</v>
       </c>
       <c r="K373" t="n">
-        <v>40</v>
+        <v>1626.026535532254</v>
       </c>
       <c r="L373" t="n">
         <v>0.35</v>
@@ -19117,7 +19117,7 @@
         <v>11</v>
       </c>
       <c r="K375" t="n">
-        <v>5</v>
+        <v>16.9540922359019</v>
       </c>
       <c r="L375" t="n">
         <v>0.38</v>
@@ -19171,7 +19171,7 @@
         <v>11</v>
       </c>
       <c r="K376" t="n">
-        <v>10</v>
+        <v>-1.9540922359019</v>
       </c>
       <c r="L376" t="n">
         <v>0.35</v>
@@ -19225,7 +19225,7 @@
         <v>11</v>
       </c>
       <c r="K377" t="n">
-        <v>40</v>
+        <v>1635.135999164445</v>
       </c>
       <c r="L377" t="n">
         <v>0.35</v>
@@ -19317,7 +19317,7 @@
         <v>11</v>
       </c>
       <c r="K379" t="n">
-        <v>5</v>
+        <v>16.95890687893785</v>
       </c>
       <c r="L379" t="n">
         <v>0.38</v>
@@ -19371,7 +19371,7 @@
         <v>11</v>
       </c>
       <c r="K380" t="n">
-        <v>10</v>
+        <v>-1.958906878937853</v>
       </c>
       <c r="L380" t="n">
         <v>0.35</v>
@@ -19425,7 +19425,7 @@
         <v>11</v>
       </c>
       <c r="K381" t="n">
-        <v>40</v>
+        <v>1644.194993689006</v>
       </c>
       <c r="L381" t="n">
         <v>0.35</v>
@@ -19517,7 +19517,7 @@
         <v>11</v>
       </c>
       <c r="K383" t="n">
-        <v>5</v>
+        <v>16.96366890187093</v>
       </c>
       <c r="L383" t="n">
         <v>0.38</v>
@@ -19571,7 +19571,7 @@
         <v>11</v>
       </c>
       <c r="K384" t="n">
-        <v>10</v>
+        <v>-1.963668901870928</v>
       </c>
       <c r="L384" t="n">
         <v>0.35</v>
@@ -19625,7 +19625,7 @@
         <v>11</v>
       </c>
       <c r="K385" t="n">
-        <v>40</v>
+        <v>1653.204348766502</v>
       </c>
       <c r="L385" t="n">
         <v>0.35</v>
@@ -19717,7 +19717,7 @@
         <v>11</v>
       </c>
       <c r="K387" t="n">
-        <v>5</v>
+        <v>16.96837944246669</v>
       </c>
       <c r="L387" t="n">
         <v>0.38</v>
@@ -19771,7 +19771,7 @@
         <v>11</v>
       </c>
       <c r="K388" t="n">
-        <v>10</v>
+        <v>-1.968379442466691</v>
       </c>
       <c r="L388" t="n">
         <v>0.35</v>
@@ -19825,7 +19825,7 @@
         <v>11</v>
       </c>
       <c r="K389" t="n">
-        <v>40</v>
+        <v>1662.164871572299</v>
       </c>
       <c r="L389" t="n">
         <v>0.35</v>
@@ -19917,7 +19917,7 @@
         <v>11</v>
       </c>
       <c r="K391" t="n">
-        <v>5</v>
+        <v>16.97303960198344</v>
       </c>
       <c r="L391" t="n">
         <v>0.38</v>
@@ -19971,7 +19971,7 @@
         <v>11</v>
       </c>
       <c r="K392" t="n">
-        <v>10</v>
+        <v>-1.973039601983444</v>
       </c>
       <c r="L392" t="n">
         <v>0.35</v>
@@ -20025,7 +20025,7 @@
         <v>11</v>
       </c>
       <c r="K393" t="n">
-        <v>40</v>
+        <v>1671.07734764057</v>
       </c>
       <c r="L393" t="n">
         <v>0.35</v>
@@ -20117,7 +20117,7 @@
         <v>11</v>
       </c>
       <c r="K395" t="n">
-        <v>5</v>
+        <v>16.97765044671758</v>
       </c>
       <c r="L395" t="n">
         <v>0.38</v>
@@ -20171,7 +20171,7 @@
         <v>11</v>
       </c>
       <c r="K396" t="n">
-        <v>10</v>
+        <v>-1.977650446717579</v>
       </c>
       <c r="L396" t="n">
         <v>0.35</v>
@@ -20225,7 +20225,7 @@
         <v>11</v>
       </c>
       <c r="K397" t="n">
-        <v>40</v>
+        <v>1679.942541667996</v>
       </c>
       <c r="L397" t="n">
         <v>0.35</v>
@@ -20317,7 +20317,7 @@
         <v>11</v>
       </c>
       <c r="K399" t="n">
-        <v>5</v>
+        <v>16.98221300946802</v>
       </c>
       <c r="L399" t="n">
         <v>0.38</v>
@@ -20371,7 +20371,7 @@
         <v>11</v>
       </c>
       <c r="K400" t="n">
-        <v>10</v>
+        <v>-1.982213009468023</v>
       </c>
       <c r="L400" t="n">
         <v>0.35</v>
@@ -20425,7 +20425,7 @@
         <v>11</v>
       </c>
       <c r="K401" t="n">
-        <v>40</v>
+        <v>1688.761198279499</v>
       </c>
       <c r="L401" t="n">
         <v>0.35</v>
@@ -20517,7 +20517,7 @@
         <v>11</v>
       </c>
       <c r="K403" t="n">
-        <v>5</v>
+        <v>16.98672829092481</v>
       </c>
       <c r="L403" t="n">
         <v>0.38</v>
@@ -20571,7 +20571,7 @@
         <v>11</v>
       </c>
       <c r="K404" t="n">
-        <v>10</v>
+        <v>-1.986728290924805</v>
       </c>
       <c r="L404" t="n">
         <v>0.35</v>
@@ -20625,7 +20625,7 @@
         <v>11</v>
       </c>
       <c r="K405" t="n">
-        <v>40</v>
+        <v>1697.534042758169</v>
       </c>
       <c r="L405" t="n">
         <v>0.35</v>
@@ -20717,7 +20717,7 @@
         <v>11</v>
       </c>
       <c r="K407" t="n">
-        <v>5</v>
+        <v>16.99119726098639</v>
       </c>
       <c r="L407" t="n">
         <v>0.38</v>
@@ -20771,7 +20771,7 @@
         <v>11</v>
       </c>
       <c r="K408" t="n">
-        <v>10</v>
+        <v>-1.991197260986386</v>
       </c>
       <c r="L408" t="n">
         <v>0.35</v>
@@ -20825,7 +20825,7 @@
         <v>11</v>
       </c>
       <c r="K409" t="n">
-        <v>40</v>
+        <v>1706.261781741411</v>
       </c>
       <c r="L409" t="n">
         <v>0.35</v>
@@ -20917,7 +20917,7 @@
         <v>11</v>
       </c>
       <c r="K411" t="n">
-        <v>5</v>
+        <v>16.99562086001014</v>
       </c>
       <c r="L411" t="n">
         <v>0.38</v>
@@ -20971,7 +20971,7 @@
         <v>11</v>
       </c>
       <c r="K412" t="n">
-        <v>10</v>
+        <v>-1.995620860010142</v>
       </c>
       <c r="L412" t="n">
         <v>0.35</v>
@@ -21025,7 +21025,7 @@
         <v>11</v>
       </c>
       <c r="K413" t="n">
-        <v>40</v>
+        <v>1714.945103885211</v>
       </c>
       <c r="L413" t="n">
         <v>0.35</v>
@@ -21117,7 +21117,7 @@
         <v>11</v>
       </c>
       <c r="K415" t="n">
-        <v>5</v>
+        <v>16.99781593146037</v>
       </c>
       <c r="L415" t="n">
         <v>0.38</v>
@@ -21171,7 +21171,7 @@
         <v>11</v>
       </c>
       <c r="K416" t="n">
-        <v>10</v>
+        <v>-1.997815931460373</v>
       </c>
       <c r="L416" t="n">
         <v>0.35</v>
@@ -21225,7 +21225,7 @@
         <v>11</v>
       </c>
       <c r="K417" t="n">
-        <v>40</v>
+        <v>1719.27031908717</v>
       </c>
       <c r="L417" t="n">
         <v>0.35</v>
@@ -21317,7 +21317,7 @@
         <v>11</v>
       </c>
       <c r="K419" t="n">
-        <v>5</v>
+        <v>16.99995642574511</v>
       </c>
       <c r="L419" t="n">
         <v>0.38</v>
@@ -21371,7 +21371,7 @@
         <v>11</v>
       </c>
       <c r="K420" t="n">
-        <v>10</v>
+        <v>-1.999956425745115</v>
       </c>
       <c r="L420" t="n">
         <v>0.35</v>
@@ -21425,7 +21425,7 @@
         <v>11</v>
       </c>
       <c r="K421" t="n">
-        <v>40</v>
+        <v>1723.498499109662</v>
       </c>
       <c r="L421" t="n">
         <v>0.35</v>

--- a/research/phreatic_df_particle_Modflow.xlsx
+++ b/research/phreatic_df_particle_Modflow.xlsx
@@ -379,7 +379,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>travel_time_zone</t>
+          <t>travel_time</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/research/phreatic_df_particle_Modflow.xlsx
+++ b/research/phreatic_df_particle_Modflow.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -21444,6 +21511,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>